--- a/data and plots-2.xlsx
+++ b/data and plots-2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27900" windowHeight="12220" firstSheet="4" activeTab="8"/>
+    <workbookView windowWidth="27900" windowHeight="12220" firstSheet="6" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,13 +16,14 @@
     <sheet name="EPV2" sheetId="7" r:id="rId7"/>
     <sheet name="EPV3" sheetId="8" r:id="rId8"/>
     <sheet name="LED" sheetId="9" r:id="rId9"/>
+    <sheet name="blue" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="23">
   <si>
     <t>Vin</t>
   </si>
@@ -83,16 +84,25 @@
   <si>
     <t>vd</t>
   </si>
+  <si>
+    <t>lin</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -119,16 +129,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -146,17 +157,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -172,7 +213,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -180,31 +228,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,29 +258,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -269,7 +279,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -281,7 +291,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -293,19 +381,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -317,25 +399,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -347,37 +417,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -389,19 +441,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,37 +453,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,17 +476,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -506,6 +510,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -516,15 +535,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -559,139 +569,139 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4127,6 +4137,700 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="marker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>blue!$D$2:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.37</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.39</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.59</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.87</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>blue!$E$2:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.098</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.121</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.139</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.176</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.208</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.286</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.304</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.387</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.593</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.696</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.77</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="993624793"/>
+        <c:axId val="543837290"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="993624793"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="543837290"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="543837290"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="993624793"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="marker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>blue!$A$3:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2.46</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.74</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.78</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.81</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.86</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.89</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.94</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.96</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>blue!$B$3:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.027</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.051</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.098</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.118</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.136</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.177</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.198</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.236</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.273</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="917268395"/>
+        <c:axId val="477630867"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="917268395"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="477630867"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="477630867"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="917268395"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
@@ -4408,6 +5112,323 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="370398656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="marker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>blue!$G$3:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.72</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.89</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.98</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.22</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.34</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.42</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>blue!$H$3:$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.036</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.067</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.191</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.267</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.321</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="182498847"/>
+        <c:axId val="665198760"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="182498847"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="665198760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="665198760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="182498847"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7313,7 +8334,127 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors18.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors19.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors20.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -12277,7 +13418,1555 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style18.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style19.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style20.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -16925,13 +19614,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>181610</xdr:colOff>
+      <xdr:colOff>192405</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>643890</xdr:colOff>
+      <xdr:colOff>654685</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>73660</xdr:rowOff>
     </xdr:to>
@@ -16941,12 +19630,107 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="13999210" y="2316480"/>
+        <a:off x="14010005" y="2316480"/>
         <a:ext cx="4607560" cy="2786380"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>407035</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>168275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>178435</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="图表 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="5243195" y="1844040"/>
+        <a:ext cx="4607560" cy="2787015"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1270</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>42545</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>463550</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>146685</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="图表 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="1270" y="3730625"/>
+        <a:ext cx="4607560" cy="2786380"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>146685</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>608965</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>157480</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="图表 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="4291965" y="1729740"/>
+        <a:ext cx="4607560" cy="2786380"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -17561,6 +20345,287 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.2" outlineLevelCol="7"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>2.05</v>
+      </c>
+      <c r="E2">
+        <v>0.098</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>2.46</v>
+      </c>
+      <c r="B3">
+        <v>0.002</v>
+      </c>
+      <c r="D3">
+        <v>2.1</v>
+      </c>
+      <c r="E3">
+        <v>0.121</v>
+      </c>
+      <c r="G3">
+        <v>1.72</v>
+      </c>
+      <c r="H3">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>2.6</v>
+      </c>
+      <c r="B4">
+        <v>0.027</v>
+      </c>
+      <c r="D4">
+        <v>2.14</v>
+      </c>
+      <c r="E4">
+        <v>0.139</v>
+      </c>
+      <c r="G4">
+        <v>1.89</v>
+      </c>
+      <c r="H4">
+        <v>0.036</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>2.64</v>
+      </c>
+      <c r="B5">
+        <v>0.051</v>
+      </c>
+      <c r="D5">
+        <v>2.2</v>
+      </c>
+      <c r="E5">
+        <v>0.176</v>
+      </c>
+      <c r="G5">
+        <v>1.98</v>
+      </c>
+      <c r="H5">
+        <v>0.067</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>2.74</v>
+      </c>
+      <c r="B6">
+        <v>0.098</v>
+      </c>
+      <c r="D6">
+        <v>2.25</v>
+      </c>
+      <c r="E6">
+        <v>0.208</v>
+      </c>
+      <c r="G6">
+        <v>2.1</v>
+      </c>
+      <c r="H6">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>2.78</v>
+      </c>
+      <c r="B7">
+        <v>0.118</v>
+      </c>
+      <c r="D7">
+        <v>2.32</v>
+      </c>
+      <c r="E7">
+        <v>0.25</v>
+      </c>
+      <c r="G7">
+        <v>2.22</v>
+      </c>
+      <c r="H7">
+        <v>0.191</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>2.81</v>
+      </c>
+      <c r="B8">
+        <v>0.136</v>
+      </c>
+      <c r="D8">
+        <v>2.37</v>
+      </c>
+      <c r="E8">
+        <v>0.286</v>
+      </c>
+      <c r="G8">
+        <v>2.34</v>
+      </c>
+      <c r="H8">
+        <v>0.267</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>2.86</v>
+      </c>
+      <c r="B9">
+        <v>0.177</v>
+      </c>
+      <c r="D9">
+        <v>2.39</v>
+      </c>
+      <c r="E9">
+        <v>0.304</v>
+      </c>
+      <c r="G9">
+        <v>2.42</v>
+      </c>
+      <c r="H9">
+        <v>0.321</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>2.89</v>
+      </c>
+      <c r="B10">
+        <v>0.198</v>
+      </c>
+      <c r="D10">
+        <v>2.5</v>
+      </c>
+      <c r="E10">
+        <v>0.387</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>2.94</v>
+      </c>
+      <c r="B11">
+        <v>0.236</v>
+      </c>
+      <c r="D11">
+        <v>2.59</v>
+      </c>
+      <c r="E11">
+        <v>0.46</v>
+      </c>
+      <c r="G11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>2.96</v>
+      </c>
+      <c r="B12">
+        <v>0.25</v>
+      </c>
+      <c r="D12">
+        <v>2.75</v>
+      </c>
+      <c r="E12">
+        <v>0.593</v>
+      </c>
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>0.273</v>
+      </c>
+      <c r="D13">
+        <v>2.87</v>
+      </c>
+      <c r="E13">
+        <v>0.696</v>
+      </c>
+    </row>
+    <row r="14" spans="4:5">
+      <c r="D14">
+        <v>2.95</v>
+      </c>
+      <c r="E14">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
@@ -19379,10 +22444,10 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T20"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G3" workbookViewId="0">
-      <selection activeCell="AA10" sqref="AA10"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.2"/>
@@ -19648,7 +22713,7 @@
         <v>0.001</v>
       </c>
       <c r="P6">
-        <f>1.8+M6</f>
+        <f t="shared" si="2"/>
         <v>1.8</v>
       </c>
       <c r="Q6">
@@ -19692,15 +22757,15 @@
         <v>0.098</v>
       </c>
       <c r="M7">
-        <f t="shared" ref="M7:M17" si="4">J3</f>
+        <f t="shared" ref="M7:M20" si="4">J3</f>
         <v>0.01</v>
       </c>
       <c r="N7">
-        <f t="shared" ref="N7:N17" si="5">K3</f>
+        <f t="shared" ref="N7:N20" si="5">K3</f>
         <v>0</v>
       </c>
       <c r="P7">
-        <f>1.8+M7</f>
+        <f t="shared" si="2"/>
         <v>1.81</v>
       </c>
       <c r="Q7">
@@ -19736,7 +22801,7 @@
         <v>0.254</v>
       </c>
       <c r="J8">
-        <f t="shared" ref="J8:J14" si="6">E3</f>
+        <f t="shared" ref="J8:J16" si="6">E3</f>
         <v>0.3</v>
       </c>
       <c r="K8">
@@ -20081,7 +23146,7 @@
         <v>0.053</v>
       </c>
       <c r="J15">
-        <f>E10</f>
+        <f t="shared" si="6"/>
         <v>0.48</v>
       </c>
       <c r="K15">
@@ -20123,14 +23188,14 @@
         <v>1.03</v>
       </c>
       <c r="E16">
-        <f>A16-1.74</f>
+        <f t="shared" si="1"/>
         <v>0.23</v>
       </c>
       <c r="F16">
         <v>0.072</v>
       </c>
       <c r="J16">
-        <f>E11</f>
+        <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
       <c r="K16">
@@ -20220,11 +23285,11 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <f>J14</f>
+        <f t="shared" si="4"/>
         <v>0.46</v>
       </c>
       <c r="N18">
-        <f>K14</f>
+        <f t="shared" si="5"/>
         <v>0.283</v>
       </c>
       <c r="P18">
@@ -20255,11 +23320,11 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <f>J15</f>
+        <f t="shared" si="4"/>
         <v>0.48</v>
       </c>
       <c r="N19">
-        <f>K15</f>
+        <f t="shared" si="5"/>
         <v>0.307</v>
       </c>
       <c r="P19">
@@ -20290,11 +23355,11 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <f>J16</f>
+        <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
       <c r="N20">
-        <f>K16</f>
+        <f t="shared" si="5"/>
         <v>0.327</v>
       </c>
       <c r="P20">
@@ -20304,6 +23369,11 @@
       <c r="Q20">
         <f t="shared" si="3"/>
         <v>0.327</v>
+      </c>
+    </row>
+    <row r="21" spans="19:19">
+      <c r="S21" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data and plots-2.xlsx
+++ b/data and plots-2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27900" windowHeight="12220" firstSheet="6" activeTab="9"/>
+    <workbookView windowWidth="21340" windowHeight="12220" firstSheet="6" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -99,10 +99,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -114,37 +114,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -165,10 +135,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -180,29 +180,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -211,9 +188,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,31 +241,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,7 +273,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -285,13 +333,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -303,19 +381,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -327,13 +411,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -345,37 +441,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -387,73 +453,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,24 +464,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -505,6 +487,50 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -538,179 +564,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1889,6 +1889,32 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>IV</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1898,25 +1924,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -2243,11 +2250,37 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>PV</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.392181413466889"/>
+          <c:x val="0.484518449257308"/>
           <c:y val="0.0396016125207493"/>
         </c:manualLayout>
       </c:layout>
@@ -2259,25 +2292,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -2603,6 +2617,371 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>PV</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.484518449257308"/>
+          <c:y val="0.0396016125207493"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="marker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'EPV3'!$C$2:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>4.84</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.82</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.76</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.74</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.66</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.62</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.56</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.78</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.04</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.02</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'EPV3'!$D$2:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.242</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3374</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.384</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4284</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.474</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6058</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.693</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8208</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.756</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.58</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.4494</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.4284</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.4242</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="683819307"/>
+        <c:axId val="605535065"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="683819307"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="605535065"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="605535065"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="683819307"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:externalData r:id="rId1">
+    <c:autoUpdate val="0"/>
+  </c:externalData>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -2971,7 +3350,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -3360,7 +3739,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -3766,7 +4145,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -4137,7 +4516,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -4443,347 +4822,6 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="993624793"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr lang="zh-CN"/>
-      </a:pPr>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="marker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>blue!$A$3:$A$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>2.46</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.64</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.74</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.78</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.81</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.86</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.89</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.94</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.96</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>blue!$B$3:$B$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.027</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.051</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.098</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.118</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.136</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.177</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.198</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.236</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.273</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="917268395"/>
-        <c:axId val="477630867"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="917268395"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="477630867"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="477630867"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="917268395"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5160,6 +5198,347 @@
 </file>
 
 <file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="marker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>blue!$A$3:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2.46</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.74</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.78</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.81</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.86</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.89</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.94</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.96</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>blue!$B$3:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.027</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.051</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.098</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.118</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.136</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.177</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.198</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.236</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.273</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="917268395"/>
+        <c:axId val="477630867"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="917268395"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="477630867"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="477630867"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="917268395"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -8494,6 +8873,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors21.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -14967,6 +15386,522 @@
 </file>
 
 <file path=xl/charts/style20.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style21.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -19458,16 +20393,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>675640</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>125095</xdr:rowOff>
+      <xdr:rowOff>69215</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>453390</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>33655</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>145415</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -19475,7 +20410,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4028440" y="2136775"/>
+        <a:off x="5543550" y="2080895"/>
         <a:ext cx="5645150" cy="2758440"/>
       </xdr:xfrm>
       <a:graphic>
@@ -19488,16 +20423,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>372110</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>23495</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>499745</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>48895</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>753110</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>127635</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>268605</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>164465</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -19505,12 +20440,42 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="372110" y="4549775"/>
-        <a:ext cx="4572000" cy="2786380"/>
+        <a:off x="5528945" y="2060575"/>
+        <a:ext cx="5636260" cy="2797810"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>321310</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>150495</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>90170</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="321310" y="4006215"/>
+        <a:ext cx="5636260" cy="2797810"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -20350,7 +21315,7 @@
   <sheetPr/>
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -22185,8 +23150,8 @@
   <sheetPr/>
   <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView zoomScale="105" zoomScaleNormal="105" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:B20"/>
+    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2"/>

--- a/data and plots-2.xlsx
+++ b/data and plots-2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21340" windowHeight="12220" firstSheet="6" activeTab="7"/>
+    <workbookView windowWidth="21340" windowHeight="12240" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="24">
   <si>
     <t>Vin</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>c</t>
+  </si>
+  <si>
+    <t>V</t>
   </si>
   <si>
     <t>串0.5</t>
@@ -99,8 +102,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -114,32 +117,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -157,8 +137,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -173,16 +154,52 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -198,14 +215,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,10 +236,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -241,26 +252,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -273,13 +276,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -291,37 +336,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -333,37 +348,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -381,7 +378,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -393,7 +396,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,31 +426,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -441,19 +438,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,32 +473,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,8 +497,32 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,6 +534,21 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,168 +567,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1165,6 +1168,32 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>IV characteristic</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1174,25 +1203,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1505,6 +1515,353 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>PV characteristic</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="marker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Emulating PV'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>P</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Emulating PV'!$C$2:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2.06</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.08</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.46</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.84</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.88</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.92</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Emulating PV'!$D$2:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.4532</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4576</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4662</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.609</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.692</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.9196</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5856</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.392</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.2952</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="334595156"/>
+        <c:axId val="934777849"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="334595156"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="934777849"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="934777849"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="334595156"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1874,7 +2231,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -2235,7 +2592,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -2602,7 +2959,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -2967,7 +3324,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -3350,7 +3707,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -3739,7 +4096,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -4145,7 +4502,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -4469,359 +4826,6 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="174313928"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr lang="zh-CN"/>
-      </a:pPr>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="marker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>blue!$D$2:$D$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>2.05</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.14</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.37</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.39</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.59</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.75</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.87</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.95</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>blue!$E$2:$E$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0.098</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.121</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.139</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.176</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.208</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.286</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.304</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.387</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.46</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.593</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.696</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.77</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="993624793"/>
-        <c:axId val="543837290"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="993624793"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="543837290"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="543837290"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="993624793"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5277,6 +5281,359 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
+              <c:f>blue!$D$2:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.37</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.39</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.59</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.87</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>blue!$E$2:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.098</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.121</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.139</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.176</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.208</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.286</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.304</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.387</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.593</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.696</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.77</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="993624793"/>
+        <c:axId val="543837290"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="993624793"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="543837290"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="543837290"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="993624793"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="marker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
               <c:f>blue!$A$3:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -5538,7 +5895,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -8913,6 +9270,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors22.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -15902,6 +16299,522 @@
 </file>
 
 <file path=xl/charts/style21.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style22.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -20323,16 +21236,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>539750</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>83185</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:colOff>73025</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -20340,12 +21253,42 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4838700" y="939800"/>
-        <a:ext cx="7429500" cy="3558540"/>
+        <a:off x="5568950" y="3771265"/>
+        <a:ext cx="6238875" cy="4228465"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>542290</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>80645</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>383540</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="12277090" y="3768725"/>
+        <a:ext cx="5708650" cy="4079875"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -21315,7 +22258,7 @@
   <sheetPr/>
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -21332,7 +22275,7 @@
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" t="s">
         <v>0</v>
@@ -21529,7 +22472,7 @@
         <v>0.46</v>
       </c>
       <c r="G11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -21573,10 +22516,10 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" t="s">
         <v>22</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:1">
@@ -22878,97 +23821,175 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" outlineLevelCol="3"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>2.06</v>
       </c>
       <c r="B2">
         <v>0.22</v>
       </c>
+      <c r="C2">
+        <f>A2</f>
+        <v>2.06</v>
+      </c>
+      <c r="D2">
+        <f>A2*B2</f>
+        <v>0.4532</v>
+      </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2.08</v>
       </c>
       <c r="B3">
         <v>0.22</v>
       </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C10" si="0">A3</f>
+        <v>2.08</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D10" si="1">A3*B3</f>
+        <v>0.4576</v>
+      </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>2.22</v>
       </c>
       <c r="B4">
         <v>0.21</v>
       </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>2.22</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>0.4662</v>
+      </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>2.9</v>
       </c>
       <c r="B5">
         <v>0.21</v>
       </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>2.9</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>0.609</v>
+      </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>3.46</v>
       </c>
       <c r="B6">
         <v>0.2</v>
       </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>3.46</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>0.692</v>
+      </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>4.84</v>
       </c>
       <c r="B7">
         <v>0.19</v>
       </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>4.84</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>0.9196</v>
+      </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>4.88</v>
       </c>
       <c r="B8">
         <v>0.12</v>
       </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>4.88</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>0.5856</v>
+      </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>4.9</v>
       </c>
       <c r="B9">
         <v>0.08</v>
       </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>4.9</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>0.392</v>
+      </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>4.92</v>
       </c>
       <c r="B10">
         <v>0.06</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>4.92</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>0.2952</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -23135,7 +24156,7 @@
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -23150,7 +24171,7 @@
   <sheetPr/>
   <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+    <sheetView zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
       <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
@@ -23374,21 +24395,21 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -23419,19 +24440,19 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:20">

--- a/data and plots-2.xlsx
+++ b/data and plots-2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21340" windowHeight="12240" firstSheet="2" activeTab="5"/>
+    <workbookView windowWidth="21340" windowHeight="12160" firstSheet="3" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,13 +17,14 @@
     <sheet name="EPV3" sheetId="8" r:id="rId8"/>
     <sheet name="LED" sheetId="9" r:id="rId9"/>
     <sheet name="blue" sheetId="10" r:id="rId10"/>
+    <sheet name="PV panels" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="25">
   <si>
     <t>Vin</t>
   </si>
@@ -96,6 +97,9 @@
   <si>
     <t>blue</t>
   </si>
+  <si>
+    <t>Power</t>
+  </si>
 </sst>
 </file>
 
@@ -123,70 +127,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -205,11 +150,47 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -221,8 +202,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,14 +215,6 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -259,11 +233,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -276,7 +280,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -288,25 +304,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -324,7 +400,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -336,31 +442,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -372,91 +454,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,30 +479,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,6 +507,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -534,6 +529,30 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -552,165 +571,150 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -6209,6 +6213,1520 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>IV</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="marker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"3"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'PV panels'!$K$2:$K$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>5.63</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.61</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.59</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.57</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.51</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.39</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.21</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.34</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.56</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.28</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.04</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.34</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'PV panels'!$L$2:$L$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>68.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>82.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>151.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>203.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>349.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>478.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>501.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>513.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>511</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>510.1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>527</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>509.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"2"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'PV panels'!$F$2:$F$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>5.39</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.37</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.33</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.31</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.29</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.27</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.02</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.86</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.98</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.12</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.32</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'PV panels'!$G$2:$G$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>65.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>82.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>89.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>97.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>102.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>124.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>176.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>186.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>199.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>221.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>264.9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>271.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>269.6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>270.3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>267.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>266.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>264.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"1"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'PV panels'!$A$2:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>4.78</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.76</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.36</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.96</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.76</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.54</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.94</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.78</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.56</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.42</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.22</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.78</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'PV panels'!$B$2:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>57.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>82.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>82.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>82.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>83.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>81.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>79.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>78.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>79.6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>79.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="421787649"/>
+        <c:axId val="733431253"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="421787649"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Voltage</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="733431253"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="733431253"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Current</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="421787649"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t>PV</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0965092763562824"/>
+          <c:y val="0.141135248773651"/>
+          <c:w val="0.890477446584015"/>
+          <c:h val="0.676019621583742"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="marker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"3"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'PV panels'!$K$2:$K$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>5.63</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.61</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.59</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.57</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.51</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.39</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.21</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.34</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.56</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.28</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.04</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.34</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'PV panels'!$M$2:$M$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>385.655</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>407.286</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>461.734</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>560.342</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>834.765</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1107.985</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1196.58</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1820.374</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2077.124</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1784.984</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1170.552</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1042.44</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>448.888</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>252.96</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>173.196</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"2"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'PV panels'!$F$2:$F$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>5.39</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.37</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.33</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.31</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.29</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.27</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.02</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.86</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.98</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.12</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.32</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'PV panels'!$H$2:$H$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>352.506</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>379.659</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>439.235</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>478.634</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>517.725</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>543.812</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>654.007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>903.906</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>949.452</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>999.482</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1076.976</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1139.07</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>808.474</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>571.552</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>356.796</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>230.136</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>101.27</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>47.592</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"1"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'PV panels'!$A$2:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>4.78</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.76</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.36</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.96</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.76</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.54</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.94</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.78</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.56</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.42</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.22</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.78</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'PV panels'!$C$2:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>272.46</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>271.796</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>327.436</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>325.908</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>308.696</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>292.404</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>244.608</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>187.91</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>160.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>141.332</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>123.24</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>111.896</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>95.16</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>76.416</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>62.244</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="435733246"/>
+        <c:axId val="496747119"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="435733246"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:t>Voltage</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.464545586924259"/>
+              <c:y val="0.915932566145642"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="496747119"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="496747119"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:t>Power</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="435733246"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
@@ -9310,6 +10828,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors23.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors24.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -17330,6 +18928,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style23.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style24.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -20975,6 +23605,107 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>248285</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>35560</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>8255</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="939165" y="5902960"/>
+        <a:ext cx="6778625" cy="4498975"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>360680</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>118745</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="图表 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="8021320" y="5986145"/>
+        <a:ext cx="7282180" cy="4434205"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.808513607815771</cdr:x>
+      <cdr:y>0</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>1</cdr:x>
+      <cdr:y>0.152988403211418</cdr:y>
+    </cdr:to>
+    <cdr:sp>
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="文本框 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3683176" y="0"/>
+          <a:ext cx="872314" cy="435027"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -21171,16 +23902,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>767080</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>114935</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>69215</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>822960</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>474980</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>38734</xdr:rowOff>
+      <xdr:rowOff>160654</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -21188,7 +23919,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6634480" y="617855"/>
+        <a:off x="8801100" y="739775"/>
         <a:ext cx="8437880" cy="3108325"/>
       </xdr:xfrm>
       <a:graphic>
@@ -22534,6 +25265,573 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="V30" sqref="V30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.2"/>
+  <cols>
+    <col min="8" max="9" width="9.46666666666667"/>
+    <col min="13" max="13" width="9.46666666666667"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2">
+        <v>4.78</v>
+      </c>
+      <c r="B2">
+        <v>57</v>
+      </c>
+      <c r="C2">
+        <f>A2*B2</f>
+        <v>272.46</v>
+      </c>
+      <c r="F2">
+        <v>5.39</v>
+      </c>
+      <c r="G2">
+        <v>65.4</v>
+      </c>
+      <c r="H2">
+        <f>F2*G2</f>
+        <v>352.506</v>
+      </c>
+      <c r="K2">
+        <v>5.63</v>
+      </c>
+      <c r="L2">
+        <v>68.5</v>
+      </c>
+      <c r="M2">
+        <f>K2*L2</f>
+        <v>385.655</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3">
+        <v>4.76</v>
+      </c>
+      <c r="B3">
+        <v>57.1</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C16" si="0">A3*B3</f>
+        <v>271.796</v>
+      </c>
+      <c r="F3">
+        <v>5.37</v>
+      </c>
+      <c r="G3">
+        <v>70.7</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H19" si="1">F3*G3</f>
+        <v>379.659</v>
+      </c>
+      <c r="K3">
+        <v>5.61</v>
+      </c>
+      <c r="L3">
+        <v>72.6</v>
+      </c>
+      <c r="M3">
+        <f>K3*L3</f>
+        <v>407.286</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4">
+        <v>4.36</v>
+      </c>
+      <c r="B4">
+        <v>75.1</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>327.436</v>
+      </c>
+      <c r="F4">
+        <v>5.35</v>
+      </c>
+      <c r="G4">
+        <v>82.1</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>439.235</v>
+      </c>
+      <c r="K4">
+        <v>5.59</v>
+      </c>
+      <c r="L4">
+        <v>82.6</v>
+      </c>
+      <c r="M4">
+        <f>K4*L4</f>
+        <v>461.734</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5">
+        <v>3.96</v>
+      </c>
+      <c r="B5">
+        <v>82.3</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>325.908</v>
+      </c>
+      <c r="F5">
+        <v>5.33</v>
+      </c>
+      <c r="G5">
+        <v>89.8</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>478.634</v>
+      </c>
+      <c r="K5">
+        <v>5.57</v>
+      </c>
+      <c r="L5">
+        <v>100.6</v>
+      </c>
+      <c r="M5">
+        <f>K5*L5</f>
+        <v>560.342</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6">
+        <v>3.76</v>
+      </c>
+      <c r="B6">
+        <v>82.1</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>308.696</v>
+      </c>
+      <c r="F6">
+        <v>5.31</v>
+      </c>
+      <c r="G6">
+        <v>97.5</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>517.725</v>
+      </c>
+      <c r="K6">
+        <v>5.51</v>
+      </c>
+      <c r="L6">
+        <v>151.5</v>
+      </c>
+      <c r="M6">
+        <f t="shared" ref="M6:M16" si="2">K6*L6</f>
+        <v>834.765</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7">
+        <v>3.54</v>
+      </c>
+      <c r="B7">
+        <v>82.6</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>292.404</v>
+      </c>
+      <c r="F7">
+        <v>5.29</v>
+      </c>
+      <c r="G7">
+        <v>102.8</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>543.812</v>
+      </c>
+      <c r="K7">
+        <v>5.45</v>
+      </c>
+      <c r="L7">
+        <v>203.3</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="2"/>
+        <v>1107.985</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8">
+        <v>2.94</v>
+      </c>
+      <c r="B8">
+        <v>83.2</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>244.608</v>
+      </c>
+      <c r="F8">
+        <v>5.27</v>
+      </c>
+      <c r="G8">
+        <v>124.1</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>654.007</v>
+      </c>
+      <c r="K8">
+        <v>5.39</v>
+      </c>
+      <c r="L8">
+        <v>222</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="2"/>
+        <v>1196.58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9">
+        <v>2.3</v>
+      </c>
+      <c r="B9">
+        <v>81.7</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>187.91</v>
+      </c>
+      <c r="F9">
+        <v>5.13</v>
+      </c>
+      <c r="G9">
+        <v>176.2</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>903.906</v>
+      </c>
+      <c r="K9">
+        <v>5.21</v>
+      </c>
+      <c r="L9">
+        <v>349.4</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="2"/>
+        <v>1820.374</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>80.3</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>160.6</v>
+      </c>
+      <c r="F10">
+        <v>5.08</v>
+      </c>
+      <c r="G10">
+        <v>186.9</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>949.452</v>
+      </c>
+      <c r="K10">
+        <v>4.34</v>
+      </c>
+      <c r="L10">
+        <v>478.6</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="2"/>
+        <v>2077.124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11">
+        <v>1.78</v>
+      </c>
+      <c r="B11">
+        <v>79.4</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>141.332</v>
+      </c>
+      <c r="F11">
+        <v>5.02</v>
+      </c>
+      <c r="G11">
+        <v>199.1</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>999.482</v>
+      </c>
+      <c r="K11">
+        <v>3.56</v>
+      </c>
+      <c r="L11">
+        <v>501.4</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="2"/>
+        <v>1784.984</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12">
+        <v>1.56</v>
+      </c>
+      <c r="B12">
+        <v>79</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>123.24</v>
+      </c>
+      <c r="F12">
+        <v>4.86</v>
+      </c>
+      <c r="G12">
+        <v>221.6</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>1076.976</v>
+      </c>
+      <c r="K12">
+        <v>2.28</v>
+      </c>
+      <c r="L12">
+        <v>513.4</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="2"/>
+        <v>1170.552</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13">
+        <v>1.42</v>
+      </c>
+      <c r="B13">
+        <v>78.8</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>111.896</v>
+      </c>
+      <c r="F13">
+        <v>4.3</v>
+      </c>
+      <c r="G13">
+        <v>264.9</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>1139.07</v>
+      </c>
+      <c r="K13">
+        <v>2.04</v>
+      </c>
+      <c r="L13">
+        <v>511</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="2"/>
+        <v>1042.44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14">
+        <v>1.22</v>
+      </c>
+      <c r="B14">
+        <v>78</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>95.16</v>
+      </c>
+      <c r="F14">
+        <v>2.98</v>
+      </c>
+      <c r="G14">
+        <v>271.3</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>808.474</v>
+      </c>
+      <c r="K14">
+        <v>0.88</v>
+      </c>
+      <c r="L14">
+        <v>510.1</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="2"/>
+        <v>448.888</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15">
+        <v>0.96</v>
+      </c>
+      <c r="B15">
+        <v>79.6</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>76.416</v>
+      </c>
+      <c r="F15">
+        <v>2.12</v>
+      </c>
+      <c r="G15">
+        <v>269.6</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>571.552</v>
+      </c>
+      <c r="K15">
+        <v>0.48</v>
+      </c>
+      <c r="L15">
+        <v>527</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="2"/>
+        <v>252.96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16">
+        <v>0.78</v>
+      </c>
+      <c r="B16">
+        <v>79.8</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>62.244</v>
+      </c>
+      <c r="F16">
+        <v>1.32</v>
+      </c>
+      <c r="G16">
+        <v>270.3</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>356.796</v>
+      </c>
+      <c r="K16">
+        <v>0.34</v>
+      </c>
+      <c r="L16">
+        <v>509.4</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="2"/>
+        <v>173.196</v>
+      </c>
+    </row>
+    <row r="17" spans="6:8">
+      <c r="F17">
+        <v>0.86</v>
+      </c>
+      <c r="G17">
+        <v>267.6</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>230.136</v>
+      </c>
+    </row>
+    <row r="18" spans="6:8">
+      <c r="F18">
+        <v>0.38</v>
+      </c>
+      <c r="G18">
+        <v>266.5</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="1"/>
+        <v>101.27</v>
+      </c>
+    </row>
+    <row r="19" spans="6:8">
+      <c r="F19">
+        <v>0.18</v>
+      </c>
+      <c r="G19">
+        <v>264.4</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="1"/>
+        <v>47.592</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
@@ -23234,7 +26532,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:G24"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" outlineLevelCol="6"/>
@@ -23823,7 +27121,7 @@
   <sheetPr/>
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>

--- a/data and plots-2.xlsx
+++ b/data and plots-2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21340" windowHeight="12160" firstSheet="3" activeTab="10"/>
+    <workbookView windowWidth="27900" windowHeight="11540" firstSheet="3" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -106,10 +106,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -121,7 +121,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -138,6 +160,66 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -150,8 +232,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -166,45 +249,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,52 +265,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -280,7 +280,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -292,13 +364,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -310,25 +376,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -340,55 +448,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,67 +460,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,58 +477,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -552,7 +502,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -571,153 +521,203 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -23612,15 +23612,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>248285</xdr:colOff>
+      <xdr:colOff>231775</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>35560</xdr:rowOff>
+      <xdr:rowOff>34925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:colOff>40640</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>8255</xdr:rowOff>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -23628,7 +23628,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="939165" y="5902960"/>
+        <a:off x="922655" y="5902325"/>
         <a:ext cx="6778625" cy="4498975"/>
       </xdr:xfrm>
       <a:graphic>
@@ -23644,13 +23644,13 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>360680</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>118745</xdr:rowOff>
+      <xdr:rowOff>118110</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>26670</xdr:rowOff>
+      <xdr:rowOff>26035</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -23658,7 +23658,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8021320" y="5986145"/>
+        <a:off x="8021320" y="5985510"/>
         <a:ext cx="7282180" cy="4434205"/>
       </xdr:xfrm>
       <a:graphic>
@@ -23685,8 +23685,8 @@
     </cdr:to>
     <cdr:sp>
       <cdr:nvSpPr>
-        <cdr:cNvPr id="2" name="文本框 1"/>
-        <cdr:cNvSpPr txBox="1"/>
+        <cdr:cNvPr id="2" name="矩形 1"/>
+        <cdr:cNvSpPr/>
       </cdr:nvSpPr>
       <cdr:spPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -25270,7 +25270,7 @@
   <sheetPr/>
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" topLeftCell="A11" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" topLeftCell="A23" workbookViewId="0">
       <selection activeCell="V30" sqref="V30"/>
     </sheetView>
   </sheetViews>

--- a/data and plots-2.xlsx
+++ b/data and plots-2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27900" windowHeight="11540" firstSheet="3" activeTab="10"/>
+    <workbookView windowWidth="27900" windowHeight="11560" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -107,8 +107,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -134,26 +134,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -172,16 +156,41 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,6 +204,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -202,18 +219,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -232,24 +241,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,10 +264,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -280,7 +280,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -292,31 +292,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -334,7 +322,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -346,25 +382,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -376,7 +400,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -388,79 +454,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,8 +477,53 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,41 +552,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,21 +571,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -579,145 +579,145 @@
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -24255,13 +24255,13 @@
       <xdr:col>20</xdr:col>
       <xdr:colOff>192405</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:rowOff>136525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>654685</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>73660</xdr:rowOff>
+      <xdr:rowOff>73025</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -24269,7 +24269,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="14010005" y="2316480"/>
+        <a:off x="14010005" y="2315845"/>
         <a:ext cx="4607560" cy="2786380"/>
       </xdr:xfrm>
       <a:graphic>
@@ -24989,7 +24989,7 @@
   <sheetPr/>
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView zoomScale="42" zoomScaleNormal="42" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -25270,7 +25270,7 @@
   <sheetPr/>
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" topLeftCell="A23" workbookViewId="0">
+    <sheetView zoomScale="68" zoomScaleNormal="68" topLeftCell="A34" workbookViewId="0">
       <selection activeCell="V30" sqref="V30"/>
     </sheetView>
   </sheetViews>
@@ -27469,7 +27469,7 @@
   <sheetPr/>
   <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
       <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
@@ -27730,8 +27730,8 @@
   <sheetPr/>
   <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="S22" sqref="S22"/>
+    <sheetView zoomScale="39" zoomScaleNormal="39" workbookViewId="0">
+      <selection activeCell="W72" sqref="W72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.2"/>
